--- a/flows/GBIL_fund_flow_data.xlsx
+++ b/flows/GBIL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1885"/>
+  <dimension ref="A1:B1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19285,6 +19285,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>-31.0217</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>-1.9956</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
